--- a/数据整理/stocks/港股/03800-保利协鑫能源.xlsx
+++ b/数据整理/stocks/港股/03800-保利协鑫能源.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8513</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.33</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03800-保利协鑫能源.xlsx
+++ b/数据整理/stocks/港股/03800-保利协鑫能源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.87</v>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1836</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1181,13 +1224,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9610</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.33</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03800-保利协鑫能源.xlsx
+++ b/数据整理/stocks/港股/03800-保利协鑫能源.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,319 +453,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城核心优选一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1424</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.49</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010783</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0979</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.87</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519601</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>海富通中国海外精选混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0454</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010784</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519602</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -826,32 +588,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010027</t>
+          <t>010108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城核心中景一年持有期混合</t>
+          <t>景顺长城核心招景混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.43</t>
+          <t>54.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>89.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4047</t>
+          <t>2.1836</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -864,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010108</t>
+          <t>010027</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城核心招景混合</t>
+          <t>景顺长城核心中景一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.95</t>
+          <t>53.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3171</t>
+          <t>2.1800</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -917,17 +679,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.18</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.8513</t>
+          <t>1.9610</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -950,26 +712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.95</t>
+          <t>80.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1256</t>
+          <t>0.0981</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -988,26 +750,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>81.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1017</t>
+          <t>0.0502</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1016,36 +778,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.93</t>
+          <t>81.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0318</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1054,36 +816,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>519602</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>海富通大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0318</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1092,36 +854,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519602</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海富通大中华精选混合QDII</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.30</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1186,32 +948,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010108</t>
+          <t>010027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城核心招景混合</t>
+          <t>景顺长城核心中景一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>72.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>87.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1836</t>
+          <t>2.4047</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1224,36 +986,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010027</t>
+          <t>010108</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城核心中景一年持有期混合</t>
+          <t>景顺长城核心招景混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53.17</t>
+          <t>67.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1800</t>
+          <t>2.3171</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1277,17 +1039,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>91.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.9610</t>
+          <t>1.8513</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1310,26 +1072,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.78</t>
+          <t>74.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0981</t>
+          <t>0.1256</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1348,26 +1110,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>78.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0502</t>
+          <t>0.1017</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1376,36 +1138,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>84.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0318</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1414,36 +1176,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519602</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通大中华精选混合QDII</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>78.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0318</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1452,36 +1214,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>519602</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>海富通大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>84.30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1495,80 +1257,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>6.49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.33</v>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>